--- a/ope.ed.gov/2001/arrests-noncampus-virginia-colleges-and-universities-crime-2001.xlsx
+++ b/ope.ed.gov/2001/arrests-noncampus-virginia-colleges-and-universities-crime-2001.xlsx
@@ -13,16 +13,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <si>
-    <t>Arrests - Noncampus</t>
-  </si>
-  <si>
-    <t>Survey year</t>
-  </si>
-  <si>
-    <t>Unitid</t>
-  </si>
-  <si>
-    <t>Institution name</t>
+    <t>Survey Year</t>
+  </si>
+  <si>
+    <t>UnitID</t>
+  </si>
+  <si>
+    <t>Institution Name</t>
   </si>
   <si>
     <t>Campus ID</t>
@@ -34,13 +31,13 @@
     <t>Institution Size</t>
   </si>
   <si>
-    <t>Illegal weapons possession</t>
-  </si>
-  <si>
-    <t>Drug law violations</t>
-  </si>
-  <si>
-    <t>Liquor law violations</t>
+    <t>Illegal Weapons Possession</t>
+  </si>
+  <si>
+    <t>Drug Law Violations</t>
+  </si>
+  <si>
+    <t>Liquor Law Violations</t>
   </si>
   <si>
     <t>ACT College</t>
@@ -1261,34 +1258,58 @@
       <c t="s" s="1" r="A1">
         <v>0</v>
       </c>
+      <c t="s" s="1" r="B1">
+        <v>1</v>
+      </c>
+      <c t="s" s="1" r="C1">
+        <v>2</v>
+      </c>
+      <c t="s" s="1" r="D1">
+        <v>3</v>
+      </c>
+      <c t="s" s="1" r="E1">
+        <v>4</v>
+      </c>
+      <c t="s" s="1" r="F1">
+        <v>5</v>
+      </c>
+      <c t="s" s="1" r="G1">
+        <v>6</v>
+      </c>
+      <c t="s" s="1" r="H1">
+        <v>7</v>
+      </c>
+      <c t="s" s="1" r="I1">
+        <v>8</v>
+      </c>
     </row>
     <row r="2">
-      <c t="s" s="1" r="A2">
-        <v>1</v>
-      </c>
-      <c t="s" s="1" r="B2">
-        <v>2</v>
+      <c s="1" r="A2">
+        <v>2001.0</v>
+      </c>
+      <c s="1" r="B2">
+        <v>419022.0</v>
       </c>
       <c t="s" s="1" r="C2">
-        <v>3</v>
-      </c>
-      <c t="s" s="1" r="D2">
-        <v>4</v>
+        <v>9</v>
+      </c>
+      <c s="1" r="D2">
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E2">
-        <v>5</v>
-      </c>
-      <c t="s" s="1" r="F2">
-        <v>6</v>
-      </c>
-      <c t="s" s="1" r="G2">
-        <v>7</v>
-      </c>
-      <c t="s" s="1" r="H2">
-        <v>8</v>
-      </c>
-      <c t="s" s="1" r="I2">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c s="1" r="F2">
+        <v>449.0</v>
+      </c>
+      <c s="1" r="G2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="H2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="I2">
+        <v>0.0</v>
       </c>
     </row>
     <row r="3">
@@ -1299,13 +1320,13 @@
         <v>419022.0</v>
       </c>
       <c t="s" s="1" r="C3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c s="1" r="D3">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c s="1" r="F3">
         <v>449.0</v>
@@ -1325,19 +1346,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B4">
-        <v>419022.0</v>
+        <v>231411.0</v>
       </c>
       <c t="s" s="1" r="C4">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c s="1" r="D4">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E4">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c s="1" r="F4">
-        <v>449.0</v>
+        <v>349.0</v>
       </c>
       <c s="1" r="G4">
         <v>0.0</v>
@@ -1354,19 +1375,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B5">
-        <v>231411.0</v>
+        <v>232797.0</v>
       </c>
       <c t="s" s="1" r="C5">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c s="1" r="D5">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E5">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c s="1" r="F5">
-        <v>349.0</v>
+        <v>1812.0</v>
       </c>
       <c s="1" r="G5">
         <v>0.0</v>
@@ -1386,13 +1407,13 @@
         <v>232797.0</v>
       </c>
       <c t="s" s="1" r="C6">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c s="1" r="D6">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E6">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c s="1" r="F6">
         <v>1812.0</v>
@@ -1415,13 +1436,13 @@
         <v>232797.0</v>
       </c>
       <c t="s" s="1" r="C7">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c s="1" r="D7">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E7">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c s="1" r="F7">
         <v>1812.0</v>
@@ -1444,13 +1465,13 @@
         <v>232797.0</v>
       </c>
       <c t="s" s="1" r="C8">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c s="1" r="D8">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c s="1" r="F8">
         <v>1812.0</v>
@@ -1473,13 +1494,13 @@
         <v>232797.0</v>
       </c>
       <c t="s" s="1" r="C9">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c s="1" r="D9">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c t="s" s="1" r="E9">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c s="1" r="F9">
         <v>1812.0</v>
@@ -1502,13 +1523,13 @@
         <v>232797.0</v>
       </c>
       <c t="s" s="1" r="C10">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c s="1" r="D10">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c t="s" s="1" r="E10">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c s="1" r="F10">
         <v>1812.0</v>
@@ -1531,13 +1552,13 @@
         <v>232797.0</v>
       </c>
       <c t="s" s="1" r="C11">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c s="1" r="D11">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c t="s" s="1" r="E11">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c s="1" r="F11">
         <v>1812.0</v>
@@ -1560,13 +1581,13 @@
         <v>232797.0</v>
       </c>
       <c t="s" s="1" r="C12">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c s="1" r="D12">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c t="s" s="1" r="E12">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c s="1" r="F12">
         <v>1812.0</v>
@@ -1586,19 +1607,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B13">
-        <v>232797.0</v>
+        <v>432348.0</v>
       </c>
       <c t="s" s="1" r="C13">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c s="1" r="D13">
-        <v>8.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E13">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c s="1" r="F13">
-        <v>1812.0</v>
+        <v>242.0</v>
       </c>
       <c s="1" r="G13">
         <v>0.0</v>
@@ -1615,19 +1636,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B14">
-        <v>432348.0</v>
+        <v>419457.0</v>
       </c>
       <c t="s" s="1" r="C14">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c s="1" r="D14">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E14">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c s="1" r="F14">
-        <v>242.0</v>
+        <v>421.0</v>
       </c>
       <c s="1" r="G14">
         <v>0.0</v>
@@ -1644,19 +1665,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B15">
-        <v>419457.0</v>
+        <v>231420.0</v>
       </c>
       <c t="s" s="1" r="C15">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c s="1" r="D15">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E15">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c s="1" r="F15">
-        <v>421.0</v>
+        <v>2396.0</v>
       </c>
       <c s="1" r="G15">
         <v>0.0</v>
@@ -1673,19 +1694,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B16">
-        <v>231420.0</v>
+        <v>427973.0</v>
       </c>
       <c t="s" s="1" r="C16">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c s="1" r="D16">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E16">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c s="1" r="F16">
-        <v>2396.0</v>
+        <v>180.0</v>
       </c>
       <c s="1" r="G16">
         <v>0.0</v>
@@ -1702,19 +1723,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B17">
-        <v>427973.0</v>
+        <v>366793.0</v>
       </c>
       <c t="s" s="1" r="C17">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c s="1" r="D17">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E17">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c s="1" r="F17">
-        <v>180.0</v>
+        <v>222.0</v>
       </c>
       <c s="1" r="G17">
         <v>0.0</v>
@@ -1731,19 +1752,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B18">
-        <v>366793.0</v>
+        <v>231280.0</v>
       </c>
       <c t="s" s="1" r="C18">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c s="1" r="D18">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E18">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c s="1" r="F18">
-        <v>222.0</v>
+        <v>34.0</v>
       </c>
       <c s="1" r="G18">
         <v>0.0</v>
@@ -1760,19 +1781,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B19">
-        <v>231280.0</v>
+        <v>231536.0</v>
       </c>
       <c t="s" s="1" r="C19">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c s="1" r="D19">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E19">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c s="1" r="F19">
-        <v>34.0</v>
+        <v>3197.0</v>
       </c>
       <c s="1" r="G19">
         <v>0.0</v>
@@ -1792,13 +1813,13 @@
         <v>231536.0</v>
       </c>
       <c t="s" s="1" r="C20">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c s="1" r="D20">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E20">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c s="1" r="F20">
         <v>3197.0</v>
@@ -1818,19 +1839,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B21">
-        <v>231536.0</v>
+        <v>231554.0</v>
       </c>
       <c t="s" s="1" r="C21">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c s="1" r="D21">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E21">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c s="1" r="F21">
-        <v>3197.0</v>
+        <v>851.0</v>
       </c>
       <c s="1" r="G21">
         <v>0.0</v>
@@ -1847,19 +1868,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B22">
-        <v>231554.0</v>
+        <v>233356.0</v>
       </c>
       <c t="s" s="1" r="C22">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c s="1" r="D22">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E22">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c s="1" r="F22">
-        <v>851.0</v>
+        <v>110.0</v>
       </c>
       <c s="1" r="G22">
         <v>0.0</v>
@@ -1876,19 +1897,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B23">
-        <v>233356.0</v>
+        <v>231572.0</v>
       </c>
       <c t="s" s="1" r="C23">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c s="1" r="D23">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E23">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c s="1" r="F23">
-        <v>110.0</v>
+        <v>47.0</v>
       </c>
       <c s="1" r="G23">
         <v>0.0</v>
@@ -1905,19 +1926,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B24">
-        <v>231572.0</v>
+        <v>231581.0</v>
       </c>
       <c t="s" s="1" r="C24">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c s="1" r="D24">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E24">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c s="1" r="F24">
-        <v>47.0</v>
+        <v>1260.0</v>
       </c>
       <c s="1" r="G24">
         <v>0.0</v>
@@ -1934,19 +1955,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B25">
-        <v>231581.0</v>
+        <v>231828.0</v>
       </c>
       <c t="s" s="1" r="C25">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c s="1" r="D25">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E25">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c s="1" r="F25">
-        <v>1260.0</v>
+        <v>295.0</v>
       </c>
       <c s="1" r="G25">
         <v>0.0</v>
@@ -1963,19 +1984,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B26">
-        <v>231828.0</v>
+        <v>231785.0</v>
       </c>
       <c t="s" s="1" r="C26">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c s="1" r="D26">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E26">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c s="1" r="F26">
-        <v>295.0</v>
+        <v>297.0</v>
       </c>
       <c s="1" r="G26">
         <v>0.0</v>
@@ -1992,19 +2013,16 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B27">
-        <v>231785.0</v>
+        <v>441858.0</v>
       </c>
       <c t="s" s="1" r="C27">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c s="1" r="D27">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E27">
-        <v>59</v>
-      </c>
-      <c s="1" r="F27">
-        <v>297.0</v>
+        <v>60</v>
       </c>
       <c s="1" r="G27">
         <v>0.0</v>
@@ -2021,16 +2039,16 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B28">
-        <v>441858.0</v>
+        <v>231688.0</v>
       </c>
       <c t="s" s="1" r="C28">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c s="1" r="D28">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E28">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c s="1" r="G28">
         <v>0.0</v>
@@ -2047,16 +2065,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B29">
-        <v>231688.0</v>
+        <v>231697.0</v>
       </c>
       <c t="s" s="1" r="C29">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c s="1" r="D29">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E29">
-        <v>63</v>
+        <v>64</v>
+      </c>
+      <c s="1" r="F29">
+        <v>4575.0</v>
       </c>
       <c s="1" r="G29">
         <v>0.0</v>
@@ -2073,19 +2094,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B30">
-        <v>231697.0</v>
+        <v>420024.0</v>
       </c>
       <c t="s" s="1" r="C30">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c s="1" r="D30">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E30">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c s="1" r="F30">
-        <v>4575.0</v>
+        <v>234.0</v>
       </c>
       <c s="1" r="G30">
         <v>0.0</v>
@@ -2102,19 +2123,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B31">
-        <v>420024.0</v>
+        <v>377449.0</v>
       </c>
       <c t="s" s="1" r="C31">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c s="1" r="D31">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E31">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c s="1" r="F31">
-        <v>234.0</v>
+        <v>314.0</v>
       </c>
       <c s="1" r="G31">
         <v>0.0</v>
@@ -2131,19 +2152,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B32">
-        <v>377449.0</v>
+        <v>377458.0</v>
       </c>
       <c t="s" s="1" r="C32">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c s="1" r="D32">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E32">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c s="1" r="F32">
-        <v>314.0</v>
+        <v>419.0</v>
       </c>
       <c s="1" r="G32">
         <v>0.0</v>
@@ -2160,19 +2181,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B33">
-        <v>377458.0</v>
+        <v>427982.0</v>
       </c>
       <c t="s" s="1" r="C33">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c s="1" r="D33">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E33">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c s="1" r="F33">
-        <v>419.0</v>
+        <v>203.0</v>
       </c>
       <c s="1" r="G33">
         <v>0.0</v>
@@ -2189,19 +2210,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B34">
-        <v>427982.0</v>
+        <v>440378.0</v>
       </c>
       <c t="s" s="1" r="C34">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c s="1" r="D34">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E34">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c s="1" r="F34">
-        <v>203.0</v>
+        <v>89.0</v>
       </c>
       <c s="1" r="G34">
         <v>0.0</v>
@@ -2218,19 +2239,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B35">
-        <v>440378.0</v>
+        <v>232016.0</v>
       </c>
       <c t="s" s="1" r="C35">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c s="1" r="D35">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E35">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c s="1" r="F35">
-        <v>89.0</v>
+        <v>245.0</v>
       </c>
       <c s="1" r="G35">
         <v>0.0</v>
@@ -2247,19 +2268,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B36">
-        <v>232016.0</v>
+        <v>427894.0</v>
       </c>
       <c t="s" s="1" r="C36">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c s="1" r="D36">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E36">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c s="1" r="F36">
-        <v>245.0</v>
+        <v>97.0</v>
       </c>
       <c s="1" r="G36">
         <v>0.0</v>
@@ -2276,19 +2297,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B37">
-        <v>427894.0</v>
+        <v>231712.0</v>
       </c>
       <c t="s" s="1" r="C37">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c s="1" r="D37">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E37">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c s="1" r="F37">
-        <v>97.0</v>
+        <v>5388.0</v>
       </c>
       <c s="1" r="G37">
         <v>0.0</v>
@@ -2305,19 +2326,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B38">
-        <v>231712.0</v>
+        <v>231624.0</v>
       </c>
       <c t="s" s="1" r="C38">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c s="1" r="D38">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E38">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c s="1" r="F38">
-        <v>5388.0</v>
+        <v>7489.0</v>
       </c>
       <c s="1" r="G38">
         <v>0.0</v>
@@ -2334,19 +2355,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B39">
-        <v>231624.0</v>
+        <v>377403.0</v>
       </c>
       <c t="s" s="1" r="C39">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c s="1" r="D39">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E39">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c s="1" r="F39">
-        <v>7489.0</v>
+        <v>30.0</v>
       </c>
       <c s="1" r="G39">
         <v>0.0</v>
@@ -2363,19 +2384,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B40">
-        <v>377403.0</v>
+        <v>231873.0</v>
       </c>
       <c t="s" s="1" r="C40">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c s="1" r="D40">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E40">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c s="1" r="F40">
-        <v>30.0</v>
+        <v>1265.0</v>
       </c>
       <c s="1" r="G40">
         <v>0.0</v>
@@ -2392,19 +2413,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B41">
-        <v>231873.0</v>
+        <v>231882.0</v>
       </c>
       <c t="s" s="1" r="C41">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c s="1" r="D41">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E41">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c s="1" r="F41">
-        <v>1265.0</v>
+        <v>3473.0</v>
       </c>
       <c s="1" r="G41">
         <v>0.0</v>
@@ -2421,19 +2442,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B42">
-        <v>231882.0</v>
+        <v>232724.0</v>
       </c>
       <c t="s" s="1" r="C42">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c s="1" r="D42">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E42">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c s="1" r="F42">
-        <v>3473.0</v>
+        <v>68.0</v>
       </c>
       <c s="1" r="G42">
         <v>0.0</v>
@@ -2450,19 +2471,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B43">
-        <v>232724.0</v>
+        <v>440536.0</v>
       </c>
       <c t="s" s="1" r="C43">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c s="1" r="D43">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E43">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c s="1" r="F43">
-        <v>68.0</v>
+        <v>243.0</v>
       </c>
       <c s="1" r="G43">
         <v>0.0</v>
@@ -2479,19 +2500,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B44">
-        <v>440536.0</v>
+        <v>232043.0</v>
       </c>
       <c t="s" s="1" r="C44">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c s="1" r="D44">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E44">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c s="1" r="F44">
-        <v>243.0</v>
+        <v>1304.0</v>
       </c>
       <c s="1" r="G44">
         <v>0.0</v>
@@ -2508,19 +2529,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B45">
-        <v>232043.0</v>
+        <v>232052.0</v>
       </c>
       <c t="s" s="1" r="C45">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c s="1" r="D45">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E45">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c s="1" r="F45">
-        <v>1304.0</v>
+        <v>884.0</v>
       </c>
       <c s="1" r="G45">
         <v>0.0</v>
@@ -2537,19 +2558,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B46">
-        <v>232052.0</v>
+        <v>231970.0</v>
       </c>
       <c t="s" s="1" r="C46">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c s="1" r="D46">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E46">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c s="1" r="F46">
-        <v>884.0</v>
+        <v>645.0</v>
       </c>
       <c s="1" r="G46">
         <v>0.0</v>
@@ -2566,19 +2587,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B47">
-        <v>231970.0</v>
+        <v>248943.0</v>
       </c>
       <c t="s" s="1" r="C47">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c s="1" r="D47">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E47">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c s="1" r="F47">
-        <v>645.0</v>
+        <v>1348.0</v>
       </c>
       <c s="1" r="G47">
         <v>0.0</v>
@@ -2598,13 +2619,13 @@
         <v>248943.0</v>
       </c>
       <c t="s" s="1" r="C48">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c s="1" r="D48">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E48">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c s="1" r="F48">
         <v>1348.0</v>
@@ -2624,19 +2645,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B49">
-        <v>248943.0</v>
+        <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C49">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c s="1" r="D49">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E49">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c s="1" r="F49">
-        <v>1348.0</v>
+        <v>3132.0</v>
       </c>
       <c s="1" r="G49">
         <v>0.0</v>
@@ -2656,13 +2677,13 @@
         <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C50">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c s="1" r="D50">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E50">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c s="1" r="F50">
         <v>3132.0</v>
@@ -2685,13 +2706,13 @@
         <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C51">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c s="1" r="D51">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E51">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c s="1" r="F51">
         <v>3132.0</v>
@@ -2714,13 +2735,13 @@
         <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C52">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c s="1" r="D52">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E52">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c s="1" r="F52">
         <v>3132.0</v>
@@ -2743,13 +2764,13 @@
         <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C53">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c s="1" r="D53">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c t="s" s="1" r="E53">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c s="1" r="F53">
         <v>3132.0</v>
@@ -2772,13 +2793,13 @@
         <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C54">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c s="1" r="D54">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c t="s" s="1" r="E54">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c s="1" r="F54">
         <v>3132.0</v>
@@ -2801,13 +2822,13 @@
         <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C55">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c s="1" r="D55">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c t="s" s="1" r="E55">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c s="1" r="F55">
         <v>3132.0</v>
@@ -2827,19 +2848,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B56">
-        <v>248934.0</v>
+        <v>232025.0</v>
       </c>
       <c t="s" s="1" r="C56">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c s="1" r="D56">
-        <v>7.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E56">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c s="1" r="F56">
-        <v>3132.0</v>
+        <v>1079.0</v>
       </c>
       <c s="1" r="G56">
         <v>0.0</v>
@@ -2856,19 +2877,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B57">
-        <v>232025.0</v>
+        <v>437149.0</v>
       </c>
       <c t="s" s="1" r="C57">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c s="1" r="D57">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E57">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c s="1" r="F57">
-        <v>1079.0</v>
+        <v>130.0</v>
       </c>
       <c s="1" r="G57">
         <v>0.0</v>
@@ -2885,19 +2906,16 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B58">
-        <v>437149.0</v>
+        <v>442310.0</v>
       </c>
       <c t="s" s="1" r="C58">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c s="1" r="D58">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E58">
-        <v>121</v>
-      </c>
-      <c s="1" r="F58">
-        <v>130.0</v>
+        <v>122</v>
       </c>
       <c s="1" r="G58">
         <v>0.0</v>
@@ -2914,16 +2932,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B59">
-        <v>442310.0</v>
+        <v>438647.0</v>
       </c>
       <c t="s" s="1" r="C59">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c s="1" r="D59">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E59">
-        <v>123</v>
+        <v>124</v>
+      </c>
+      <c s="1" r="F59">
+        <v>1011.0</v>
       </c>
       <c s="1" r="G59">
         <v>0.0</v>
@@ -2940,19 +2961,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B60">
-        <v>438647.0</v>
+        <v>232502.0</v>
       </c>
       <c t="s" s="1" r="C60">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c s="1" r="D60">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E60">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c s="1" r="F60">
-        <v>1011.0</v>
+        <v>766.0</v>
       </c>
       <c s="1" r="G60">
         <v>0.0</v>
@@ -2969,25 +2990,25 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B61">
-        <v>232502.0</v>
+        <v>232089.0</v>
       </c>
       <c t="s" s="1" r="C61">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c s="1" r="D61">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E61">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c s="1" r="F61">
-        <v>766.0</v>
+        <v>920.0</v>
       </c>
       <c s="1" r="G61">
         <v>0.0</v>
       </c>
       <c s="1" r="H61">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="I61">
         <v>0.0</v>
@@ -2998,25 +3019,25 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B62">
-        <v>232089.0</v>
+        <v>233329.0</v>
       </c>
       <c t="s" s="1" r="C62">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c s="1" r="D62">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E62">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c s="1" r="F62">
-        <v>920.0</v>
+        <v>230.0</v>
       </c>
       <c s="1" r="G62">
         <v>0.0</v>
       </c>
       <c s="1" r="H62">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I62">
         <v>0.0</v>
@@ -3027,19 +3048,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B63">
-        <v>233329.0</v>
+        <v>382957.0</v>
       </c>
       <c t="s" s="1" r="C63">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c s="1" r="D63">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E63">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c s="1" r="F63">
-        <v>230.0</v>
+        <v>96.0</v>
       </c>
       <c s="1" r="G63">
         <v>0.0</v>
@@ -3056,19 +3077,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B64">
-        <v>382957.0</v>
+        <v>232186.0</v>
       </c>
       <c t="s" s="1" r="C64">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c s="1" r="D64">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E64">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c s="1" r="F64">
-        <v>96.0</v>
+        <v>24897.0</v>
       </c>
       <c s="1" r="G64">
         <v>0.0</v>
@@ -3085,19 +3106,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B65">
-        <v>232186.0</v>
+        <v>232195.0</v>
       </c>
       <c t="s" s="1" r="C65">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c s="1" r="D65">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E65">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c s="1" r="F65">
-        <v>24897.0</v>
+        <v>4270.0</v>
       </c>
       <c s="1" r="G65">
         <v>0.0</v>
@@ -3117,13 +3138,13 @@
         <v>232195.0</v>
       </c>
       <c t="s" s="1" r="C66">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c s="1" r="D66">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E66">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c s="1" r="F66">
         <v>4270.0</v>
@@ -3143,19 +3164,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B67">
-        <v>232195.0</v>
+        <v>406495.0</v>
       </c>
       <c t="s" s="1" r="C67">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c s="1" r="D67">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E67">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c s="1" r="F67">
-        <v>4270.0</v>
+        <v>133.0</v>
       </c>
       <c s="1" r="G67">
         <v>0.0</v>
@@ -3172,19 +3193,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B68">
-        <v>406495.0</v>
+        <v>232256.0</v>
       </c>
       <c t="s" s="1" r="C68">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c s="1" r="D68">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E68">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c s="1" r="F68">
-        <v>133.0</v>
+        <v>1026.0</v>
       </c>
       <c s="1" r="G68">
         <v>0.0</v>
@@ -3201,19 +3222,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B69">
-        <v>232256.0</v>
+        <v>232265.0</v>
       </c>
       <c t="s" s="1" r="C69">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c s="1" r="D69">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E69">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c s="1" r="F69">
-        <v>1026.0</v>
+        <v>5787.0</v>
       </c>
       <c s="1" r="G69">
         <v>0.0</v>
@@ -3230,19 +3251,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B70">
-        <v>232265.0</v>
+        <v>431266.0</v>
       </c>
       <c t="s" s="1" r="C70">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c s="1" r="D70">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E70">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c s="1" r="F70">
-        <v>5787.0</v>
+        <v>101.0</v>
       </c>
       <c s="1" r="G70">
         <v>0.0</v>
@@ -3259,19 +3280,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B71">
-        <v>431266.0</v>
+        <v>233189.0</v>
       </c>
       <c t="s" s="1" r="C71">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c s="1" r="D71">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E71">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c s="1" r="F71">
-        <v>101.0</v>
+        <v>189.0</v>
       </c>
       <c s="1" r="G71">
         <v>0.0</v>
@@ -3288,19 +3309,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B72">
-        <v>233189.0</v>
+        <v>377421.0</v>
       </c>
       <c t="s" s="1" r="C72">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c s="1" r="D72">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E72">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c s="1" r="F72">
-        <v>189.0</v>
+        <v>112.0</v>
       </c>
       <c s="1" r="G72">
         <v>0.0</v>
@@ -3317,19 +3338,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B73">
-        <v>377421.0</v>
+        <v>232292.0</v>
       </c>
       <c t="s" s="1" r="C73">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c s="1" r="D73">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E73">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c s="1" r="F73">
-        <v>112.0</v>
+        <v>48.0</v>
       </c>
       <c s="1" r="G73">
         <v>0.0</v>
@@ -3346,19 +3367,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B74">
-        <v>232292.0</v>
+        <v>232308.0</v>
       </c>
       <c t="s" s="1" r="C74">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c s="1" r="D74">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E74">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c s="1" r="F74">
-        <v>48.0</v>
+        <v>1091.0</v>
       </c>
       <c s="1" r="G74">
         <v>0.0</v>
@@ -3375,19 +3396,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B75">
-        <v>232308.0</v>
+        <v>418977.0</v>
       </c>
       <c t="s" s="1" r="C75">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c s="1" r="D75">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E75">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c s="1" r="F75">
-        <v>1091.0</v>
+        <v>24.0</v>
       </c>
       <c s="1" r="G75">
         <v>0.0</v>
@@ -3404,19 +3425,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B76">
-        <v>418977.0</v>
+        <v>368601.0</v>
       </c>
       <c t="s" s="1" r="C76">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c s="1" r="D76">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E76">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c s="1" r="F76">
-        <v>24.0</v>
+        <v>381.0</v>
       </c>
       <c s="1" r="G76">
         <v>0.0</v>
@@ -3433,19 +3454,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B77">
-        <v>368601.0</v>
+        <v>437051.0</v>
       </c>
       <c t="s" s="1" r="C77">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c s="1" r="D77">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E77">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c s="1" r="F77">
-        <v>381.0</v>
+        <v>222.0</v>
       </c>
       <c s="1" r="G77">
         <v>0.0</v>
@@ -3462,19 +3483,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B78">
-        <v>437051.0</v>
+        <v>232414.0</v>
       </c>
       <c t="s" s="1" r="C78">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c s="1" r="D78">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E78">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c s="1" r="F78">
-        <v>222.0</v>
+        <v>11079.0</v>
       </c>
       <c s="1" r="G78">
         <v>0.0</v>
@@ -3494,13 +3515,13 @@
         <v>232414.0</v>
       </c>
       <c t="s" s="1" r="C79">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c s="1" r="D79">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E79">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c s="1" r="F79">
         <v>11079.0</v>
@@ -3523,13 +3544,13 @@
         <v>232414.0</v>
       </c>
       <c t="s" s="1" r="C80">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c s="1" r="D80">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E80">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c s="1" r="F80">
         <v>11079.0</v>
@@ -3549,19 +3570,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B81">
-        <v>232414.0</v>
+        <v>232423.0</v>
       </c>
       <c t="s" s="1" r="C81">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c s="1" r="D81">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E81">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c s="1" r="F81">
-        <v>11079.0</v>
+        <v>15562.0</v>
       </c>
       <c s="1" r="G81">
         <v>0.0</v>
@@ -3570,7 +3591,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I81">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="82">
@@ -3581,13 +3602,13 @@
         <v>232423.0</v>
       </c>
       <c t="s" s="1" r="C82">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c s="1" r="D82">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E82">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c s="1" r="F82">
         <v>15562.0</v>
@@ -3599,7 +3620,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I82">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="83">
@@ -3607,19 +3628,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B83">
-        <v>232423.0</v>
+        <v>231837.0</v>
       </c>
       <c t="s" s="1" r="C83">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c s="1" r="D83">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E83">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c s="1" r="F83">
-        <v>15562.0</v>
+        <v>648.0</v>
       </c>
       <c s="1" r="G83">
         <v>0.0</v>
@@ -3639,13 +3660,13 @@
         <v>231837.0</v>
       </c>
       <c t="s" s="1" r="C84">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c s="1" r="D84">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E84">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c s="1" r="F84">
         <v>648.0</v>
@@ -3665,19 +3686,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B85">
-        <v>231837.0</v>
+        <v>232450.0</v>
       </c>
       <c t="s" s="1" r="C85">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c s="1" r="D85">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E85">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c s="1" r="F85">
-        <v>648.0</v>
+        <v>5548.0</v>
       </c>
       <c s="1" r="G85">
         <v>0.0</v>
@@ -3697,13 +3718,13 @@
         <v>232450.0</v>
       </c>
       <c t="s" s="1" r="C86">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c s="1" r="D86">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E86">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c s="1" r="F86">
         <v>5548.0</v>
@@ -3726,13 +3747,13 @@
         <v>232450.0</v>
       </c>
       <c t="s" s="1" r="C87">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c s="1" r="D87">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E87">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c s="1" r="F87">
         <v>5548.0</v>
@@ -3752,19 +3773,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B88">
-        <v>232450.0</v>
+        <v>232469.0</v>
       </c>
       <c t="s" s="1" r="C88">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c s="1" r="D88">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E88">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c s="1" r="F88">
-        <v>5548.0</v>
+        <v>635.0</v>
       </c>
       <c s="1" r="G88">
         <v>0.0</v>
@@ -3781,19 +3802,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B89">
-        <v>232469.0</v>
+        <v>232557.0</v>
       </c>
       <c t="s" s="1" r="C89">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c s="1" r="D89">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E89">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c s="1" r="F89">
-        <v>635.0</v>
+        <v>6162.0</v>
       </c>
       <c s="1" r="G89">
         <v>0.0</v>
@@ -3810,19 +3831,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B90">
-        <v>232557.0</v>
+        <v>232566.0</v>
       </c>
       <c t="s" s="1" r="C90">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c s="1" r="D90">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E90">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c s="1" r="F90">
-        <v>6162.0</v>
+        <v>4114.0</v>
       </c>
       <c s="1" r="G90">
         <v>0.0</v>
@@ -3831,7 +3852,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I90">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="91">
@@ -3839,19 +3860,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B91">
-        <v>232566.0</v>
+        <v>232575.0</v>
       </c>
       <c t="s" s="1" r="C91">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c s="1" r="D91">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E91">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c s="1" r="F91">
-        <v>4114.0</v>
+        <v>4191.0</v>
       </c>
       <c s="1" r="G91">
         <v>0.0</v>
@@ -3860,7 +3881,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I91">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="92">
@@ -3871,13 +3892,13 @@
         <v>232575.0</v>
       </c>
       <c t="s" s="1" r="C92">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c s="1" r="D92">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E92">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c s="1" r="F92">
         <v>4191.0</v>
@@ -3897,19 +3918,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B93">
-        <v>232575.0</v>
+        <v>232609.0</v>
       </c>
       <c t="s" s="1" r="C93">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c s="1" r="D93">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E93">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c s="1" r="F93">
-        <v>4191.0</v>
+        <v>1937.0</v>
       </c>
       <c s="1" r="G93">
         <v>0.0</v>
@@ -3926,19 +3947,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B94">
-        <v>232609.0</v>
+        <v>232618.0</v>
       </c>
       <c t="s" s="1" r="C94">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c s="1" r="D94">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E94">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c s="1" r="F94">
-        <v>1937.0</v>
+        <v>202.0</v>
       </c>
       <c s="1" r="G94">
         <v>0.0</v>
@@ -3955,19 +3976,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B95">
-        <v>232618.0</v>
+        <v>232672.0</v>
       </c>
       <c t="s" s="1" r="C95">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c s="1" r="D95">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E95">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c s="1" r="F95">
-        <v>202.0</v>
+        <v>1564.0</v>
       </c>
       <c s="1" r="G95">
         <v>0.0</v>
@@ -3984,19 +4005,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B96">
-        <v>232672.0</v>
+        <v>232706.0</v>
       </c>
       <c t="s" s="1" r="C96">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c s="1" r="D96">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E96">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c s="1" r="F96">
-        <v>1564.0</v>
+        <v>3475.0</v>
       </c>
       <c s="1" r="G96">
         <v>0.0</v>
@@ -4013,19 +4034,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B97">
-        <v>232706.0</v>
+        <v>231642.0</v>
       </c>
       <c t="s" s="1" r="C97">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c s="1" r="D97">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E97">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c s="1" r="F97">
-        <v>3475.0</v>
+        <v>534.0</v>
       </c>
       <c s="1" r="G97">
         <v>0.0</v>
@@ -4045,13 +4066,13 @@
         <v>231642.0</v>
       </c>
       <c t="s" s="1" r="C98">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c s="1" r="D98">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E98">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c s="1" r="F98">
         <v>534.0</v>
@@ -4074,13 +4095,13 @@
         <v>231642.0</v>
       </c>
       <c t="s" s="1" r="C99">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c s="1" r="D99">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E99">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c s="1" r="F99">
         <v>534.0</v>
@@ -4100,19 +4121,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B100">
-        <v>231642.0</v>
+        <v>131742.0</v>
       </c>
       <c t="s" s="1" r="C100">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c s="1" r="D100">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E100">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c s="1" r="F100">
-        <v>534.0</v>
+        <v>908.0</v>
       </c>
       <c s="1" r="G100">
         <v>0.0</v>
@@ -4129,19 +4150,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B101">
-        <v>131742.0</v>
+        <v>233091.0</v>
       </c>
       <c t="s" s="1" r="C101">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c s="1" r="D101">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E101">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c s="1" r="F101">
-        <v>908.0</v>
+        <v>156.0</v>
       </c>
       <c s="1" r="G101">
         <v>0.0</v>
@@ -4158,19 +4179,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B102">
-        <v>233091.0</v>
+        <v>232788.0</v>
       </c>
       <c t="s" s="1" r="C102">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c s="1" r="D102">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E102">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c s="1" r="F102">
-        <v>156.0</v>
+        <v>2916.0</v>
       </c>
       <c s="1" r="G102">
         <v>0.0</v>
@@ -4187,19 +4208,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B103">
-        <v>232788.0</v>
+        <v>419004.0</v>
       </c>
       <c t="s" s="1" r="C103">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c s="1" r="D103">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E103">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c s="1" r="F103">
-        <v>2916.0</v>
+        <v>49.0</v>
       </c>
       <c s="1" r="G103">
         <v>0.0</v>
@@ -4216,19 +4237,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B104">
-        <v>419004.0</v>
+        <v>232867.0</v>
       </c>
       <c t="s" s="1" r="C104">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c s="1" r="D104">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E104">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c s="1" r="F104">
-        <v>49.0</v>
+        <v>3947.0</v>
       </c>
       <c s="1" r="G104">
         <v>0.0</v>
@@ -4245,19 +4266,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B105">
-        <v>232867.0</v>
+        <v>433299.0</v>
       </c>
       <c t="s" s="1" r="C105">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c s="1" r="D105">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E105">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c s="1" r="F105">
-        <v>3947.0</v>
+        <v>34.0</v>
       </c>
       <c s="1" r="G105">
         <v>0.0</v>
@@ -4274,19 +4295,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B106">
-        <v>433299.0</v>
+        <v>233417.0</v>
       </c>
       <c t="s" s="1" r="C106">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c s="1" r="D106">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E106">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c s="1" r="F106">
-        <v>34.0</v>
+        <v>15.0</v>
       </c>
       <c s="1" r="G106">
         <v>0.0</v>
@@ -4303,25 +4324,25 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B107">
-        <v>233417.0</v>
+        <v>232937.0</v>
       </c>
       <c t="s" s="1" r="C107">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c s="1" r="D107">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E107">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c s="1" r="F107">
-        <v>15.0</v>
+        <v>6721.0</v>
       </c>
       <c s="1" r="G107">
         <v>0.0</v>
       </c>
       <c s="1" r="H107">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="I107">
         <v>0.0</v>
@@ -4332,25 +4353,25 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B108">
-        <v>232937.0</v>
+        <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C108">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c s="1" r="D108">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E108">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c s="1" r="F108">
-        <v>6721.0</v>
+        <v>38159.0</v>
       </c>
       <c s="1" r="G108">
         <v>0.0</v>
       </c>
       <c s="1" r="H108">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I108">
         <v>0.0</v>
@@ -4364,13 +4385,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C109">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c s="1" r="D109">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E109">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c s="1" r="F109">
         <v>38159.0</v>
@@ -4393,13 +4414,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C110">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c s="1" r="D110">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E110">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c s="1" r="F110">
         <v>38159.0</v>
@@ -4422,13 +4443,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C111">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c s="1" r="D111">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E111">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c s="1" r="F111">
         <v>38159.0</v>
@@ -4451,13 +4472,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C112">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c s="1" r="D112">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c t="s" s="1" r="E112">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c s="1" r="F112">
         <v>38159.0</v>
@@ -4477,19 +4498,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B113">
-        <v>232946.0</v>
+        <v>232982.0</v>
       </c>
       <c t="s" s="1" r="C113">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c s="1" r="D113">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E113">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c s="1" r="F113">
-        <v>38159.0</v>
+        <v>19627.0</v>
       </c>
       <c s="1" r="G113">
         <v>0.0</v>
@@ -4506,19 +4527,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B114">
-        <v>232982.0</v>
+        <v>233019.0</v>
       </c>
       <c t="s" s="1" r="C114">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c s="1" r="D114">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E114">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c s="1" r="F114">
-        <v>19627.0</v>
+        <v>3024.0</v>
       </c>
       <c s="1" r="G114">
         <v>0.0</v>
@@ -4535,19 +4556,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B115">
-        <v>233019.0</v>
+        <v>233037.0</v>
       </c>
       <c t="s" s="1" r="C115">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c s="1" r="D115">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E115">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c s="1" r="F115">
-        <v>3024.0</v>
+        <v>1492.0</v>
       </c>
       <c s="1" r="G115">
         <v>0.0</v>
@@ -4567,13 +4588,13 @@
         <v>233037.0</v>
       </c>
       <c t="s" s="1" r="C116">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c s="1" r="D116">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E116">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c s="1" r="F116">
         <v>1492.0</v>
@@ -4593,19 +4614,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B117">
-        <v>233037.0</v>
+        <v>233116.0</v>
       </c>
       <c t="s" s="1" r="C117">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c s="1" r="D117">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E117">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c s="1" r="F117">
-        <v>1492.0</v>
+        <v>4171.0</v>
       </c>
       <c s="1" r="G117">
         <v>0.0</v>
@@ -4622,19 +4643,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B118">
-        <v>233116.0</v>
+        <v>233277.0</v>
       </c>
       <c t="s" s="1" r="C118">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c s="1" r="D118">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E118">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c s="1" r="F118">
-        <v>4171.0</v>
+        <v>9142.0</v>
       </c>
       <c s="1" r="G118">
         <v>0.0</v>
@@ -4651,19 +4672,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B119">
-        <v>233277.0</v>
+        <v>233301.0</v>
       </c>
       <c t="s" s="1" r="C119">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c s="1" r="D119">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E119">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c s="1" r="F119">
-        <v>9142.0</v>
+        <v>727.0</v>
       </c>
       <c s="1" r="G119">
         <v>0.0</v>
@@ -4680,19 +4701,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B120">
-        <v>233301.0</v>
+        <v>233295.0</v>
       </c>
       <c t="s" s="1" r="C120">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c s="1" r="D120">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E120">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c s="1" r="F120">
-        <v>727.0</v>
+        <v>1150.0</v>
       </c>
       <c s="1" r="G120">
         <v>0.0</v>
@@ -4701,7 +4722,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I120">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="121">
@@ -4709,19 +4730,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B121">
-        <v>233295.0</v>
+        <v>233310.0</v>
       </c>
       <c t="s" s="1" r="C121">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c s="1" r="D121">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E121">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c s="1" r="F121">
-        <v>1150.0</v>
+        <v>2058.0</v>
       </c>
       <c s="1" r="G121">
         <v>0.0</v>
@@ -4730,7 +4751,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I121">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="122">
@@ -4738,19 +4759,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B122">
-        <v>233310.0</v>
+        <v>231651.0</v>
       </c>
       <c t="s" s="1" r="C122">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c s="1" r="D122">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E122">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c s="1" r="F122">
-        <v>2058.0</v>
+        <v>2689.0</v>
       </c>
       <c s="1" r="G122">
         <v>0.0</v>
@@ -4770,13 +4791,13 @@
         <v>231651.0</v>
       </c>
       <c t="s" s="1" r="C123">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c s="1" r="D123">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E123">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c s="1" r="F123">
         <v>2689.0</v>
@@ -4796,19 +4817,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B124">
-        <v>231651.0</v>
+        <v>233338.0</v>
       </c>
       <c t="s" s="1" r="C124">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c s="1" r="D124">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E124">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c s="1" r="F124">
-        <v>2689.0</v>
+        <v>1304.0</v>
       </c>
       <c s="1" r="G124">
         <v>0.0</v>
@@ -4825,19 +4846,16 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B125">
-        <v>233338.0</v>
+        <v>437769.0</v>
       </c>
       <c t="s" s="1" r="C125">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c s="1" r="D125">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E125">
-        <v>255</v>
-      </c>
-      <c s="1" r="F125">
-        <v>1304.0</v>
+        <v>256</v>
       </c>
       <c s="1" r="G125">
         <v>0.0</v>
@@ -4854,16 +4872,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B126">
-        <v>437769.0</v>
+        <v>233408.0</v>
       </c>
       <c t="s" s="1" r="C126">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c s="1" r="D126">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E126">
-        <v>257</v>
+        <v>258</v>
+      </c>
+      <c s="1" r="F126">
+        <v>136.0</v>
       </c>
       <c s="1" r="G126">
         <v>0.0</v>
@@ -4880,19 +4901,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B127">
-        <v>233408.0</v>
+        <v>233426.0</v>
       </c>
       <c t="s" s="1" r="C127">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c s="1" r="D127">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E127">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c s="1" r="F127">
-        <v>136.0</v>
+        <v>1790.0</v>
       </c>
       <c s="1" r="G127">
         <v>0.0</v>
@@ -4909,19 +4930,16 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B128">
-        <v>233426.0</v>
+        <v>441876.0</v>
       </c>
       <c t="s" s="1" r="C128">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c s="1" r="D128">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E128">
-        <v>261</v>
-      </c>
-      <c s="1" r="F128">
-        <v>1790.0</v>
+        <v>262</v>
       </c>
       <c s="1" r="G128">
         <v>0.0</v>
@@ -4938,16 +4956,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B129">
-        <v>441876.0</v>
+        <v>233499.0</v>
       </c>
       <c t="s" s="1" r="C129">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c s="1" r="D129">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E129">
-        <v>263</v>
+        <v>264</v>
+      </c>
+      <c s="1" r="F129">
+        <v>555.0</v>
       </c>
       <c s="1" r="G129">
         <v>0.0</v>
@@ -4964,19 +4985,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B130">
-        <v>233499.0</v>
+        <v>234216.0</v>
       </c>
       <c t="s" s="1" r="C130">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c s="1" r="D130">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E130">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c s="1" r="F130">
-        <v>555.0</v>
+        <v>478.0</v>
       </c>
       <c s="1" r="G130">
         <v>0.0</v>
@@ -4993,19 +5014,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B131">
-        <v>234216.0</v>
+        <v>232885.0</v>
       </c>
       <c t="s" s="1" r="C131">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c s="1" r="D131">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E131">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c s="1" r="F131">
-        <v>478.0</v>
+        <v>86.0</v>
       </c>
       <c s="1" r="G131">
         <v>0.0</v>
@@ -5022,19 +5043,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B132">
-        <v>232885.0</v>
+        <v>233541.0</v>
       </c>
       <c t="s" s="1" r="C132">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c s="1" r="D132">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E132">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c s="1" r="F132">
-        <v>86.0</v>
+        <v>2451.0</v>
       </c>
       <c s="1" r="G132">
         <v>0.0</v>
@@ -5043,7 +5064,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I132">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="133">
@@ -5051,19 +5072,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B133">
-        <v>233541.0</v>
+        <v>261931.0</v>
       </c>
       <c t="s" s="1" r="C133">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c s="1" r="D133">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E133">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c s="1" r="F133">
-        <v>2451.0</v>
+        <v>354.0</v>
       </c>
       <c s="1" r="G133">
         <v>0.0</v>
@@ -5072,7 +5093,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I133">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="134">
@@ -5080,19 +5101,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B134">
-        <v>261931.0</v>
+        <v>233611.0</v>
       </c>
       <c t="s" s="1" r="C134">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c s="1" r="D134">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E134">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c s="1" r="F134">
-        <v>354.0</v>
+        <v>445.0</v>
       </c>
       <c s="1" r="G134">
         <v>0.0</v>
@@ -5109,19 +5130,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B135">
-        <v>233611.0</v>
+        <v>233082.0</v>
       </c>
       <c t="s" s="1" r="C135">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c s="1" r="D135">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E135">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c s="1" r="F135">
-        <v>445.0</v>
+        <v>84.0</v>
       </c>
       <c s="1" r="G135">
         <v>0.0</v>
@@ -5138,19 +5159,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B136">
-        <v>233082.0</v>
+        <v>233639.0</v>
       </c>
       <c t="s" s="1" r="C136">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c s="1" r="D136">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E136">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c s="1" r="F136">
-        <v>84.0</v>
+        <v>4313.0</v>
       </c>
       <c s="1" r="G136">
         <v>0.0</v>
@@ -5167,19 +5188,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B137">
-        <v>233639.0</v>
+        <v>233648.0</v>
       </c>
       <c t="s" s="1" r="C137">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c s="1" r="D137">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E137">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c s="1" r="F137">
-        <v>4313.0</v>
+        <v>4192.0</v>
       </c>
       <c s="1" r="G137">
         <v>0.0</v>
@@ -5196,19 +5217,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B138">
-        <v>233648.0</v>
+        <v>233657.0</v>
       </c>
       <c t="s" s="1" r="C138">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c s="1" r="D138">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E138">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c s="1" r="F138">
-        <v>4192.0</v>
+        <v>95.0</v>
       </c>
       <c s="1" r="G138">
         <v>0.0</v>
@@ -5225,19 +5246,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B139">
-        <v>233657.0</v>
+        <v>233666.0</v>
       </c>
       <c t="s" s="1" r="C139">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c s="1" r="D139">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E139">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c s="1" r="F139">
-        <v>95.0</v>
+        <v>25.0</v>
       </c>
       <c s="1" r="G139">
         <v>0.0</v>
@@ -5254,19 +5275,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B140">
-        <v>233666.0</v>
+        <v>438498.0</v>
       </c>
       <c t="s" s="1" r="C140">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c s="1" r="D140">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E140">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c s="1" r="F140">
-        <v>25.0</v>
+        <v>686.0</v>
       </c>
       <c s="1" r="G140">
         <v>0.0</v>
@@ -5283,19 +5304,16 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B141">
-        <v>438498.0</v>
+        <v>233684.0</v>
       </c>
       <c t="s" s="1" r="C141">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c s="1" r="D141">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E141">
-        <v>287</v>
-      </c>
-      <c s="1" r="F141">
-        <v>686.0</v>
+        <v>288</v>
       </c>
       <c s="1" r="G141">
         <v>0.0</v>
@@ -5312,16 +5330,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B142">
-        <v>233684.0</v>
+        <v>231721.0</v>
       </c>
       <c t="s" s="1" r="C142">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c s="1" r="D142">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E142">
-        <v>289</v>
+        <v>290</v>
+      </c>
+      <c s="1" r="F142">
+        <v>35.0</v>
       </c>
       <c s="1" r="G142">
         <v>0.0</v>
@@ -5338,19 +5359,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B143">
-        <v>231721.0</v>
+        <v>232593.0</v>
       </c>
       <c t="s" s="1" r="C143">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c s="1" r="D143">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E143">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c s="1" r="F143">
-        <v>35.0</v>
+        <v>51.0</v>
       </c>
       <c s="1" r="G143">
         <v>0.0</v>
@@ -5367,19 +5388,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B144">
-        <v>232593.0</v>
+        <v>233718.0</v>
       </c>
       <c t="s" s="1" r="C144">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c s="1" r="D144">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E144">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c s="1" r="F144">
-        <v>51.0</v>
+        <v>738.0</v>
       </c>
       <c s="1" r="G144">
         <v>0.0</v>
@@ -5396,19 +5417,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B145">
-        <v>233718.0</v>
+        <v>233286.0</v>
       </c>
       <c t="s" s="1" r="C145">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c s="1" r="D145">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E145">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c s="1" r="F145">
-        <v>738.0</v>
+        <v>43.0</v>
       </c>
       <c s="1" r="G145">
         <v>0.0</v>
@@ -5425,19 +5446,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B146">
-        <v>233286.0</v>
+        <v>248970.0</v>
       </c>
       <c t="s" s="1" r="C146">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c s="1" r="D146">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E146">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c s="1" r="F146">
-        <v>43.0</v>
+        <v>311.0</v>
       </c>
       <c s="1" r="G146">
         <v>0.0</v>
@@ -5454,19 +5475,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B147">
-        <v>248970.0</v>
+        <v>440341.0</v>
       </c>
       <c t="s" s="1" r="C147">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c s="1" r="D147">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E147">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c s="1" r="F147">
-        <v>311.0</v>
+        <v>146.0</v>
       </c>
       <c s="1" r="G147">
         <v>0.0</v>
@@ -5483,19 +5504,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B148">
-        <v>440341.0</v>
+        <v>233897.0</v>
       </c>
       <c t="s" s="1" r="C148">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c s="1" r="D148">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E148">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c s="1" r="F148">
-        <v>146.0</v>
+        <v>1480.0</v>
       </c>
       <c s="1" r="G148">
         <v>0.0</v>
@@ -5512,19 +5533,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B149">
-        <v>233897.0</v>
+        <v>233754.0</v>
       </c>
       <c t="s" s="1" r="C149">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c s="1" r="D149">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E149">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c s="1" r="F149">
-        <v>1480.0</v>
+        <v>7885.0</v>
       </c>
       <c s="1" r="G149">
         <v>0.0</v>
@@ -5541,19 +5562,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B150">
-        <v>233754.0</v>
+        <v>233772.0</v>
       </c>
       <c t="s" s="1" r="C150">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c s="1" r="D150">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E150">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c s="1" r="F150">
-        <v>7885.0</v>
+        <v>21279.0</v>
       </c>
       <c s="1" r="G150">
         <v>0.0</v>
@@ -5573,13 +5594,13 @@
         <v>233772.0</v>
       </c>
       <c t="s" s="1" r="C151">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c s="1" r="D151">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E151">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c s="1" r="F151">
         <v>21279.0</v>
@@ -5602,13 +5623,13 @@
         <v>233772.0</v>
       </c>
       <c t="s" s="1" r="C152">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c s="1" r="D152">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E152">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c s="1" r="F152">
         <v>21279.0</v>
@@ -5631,13 +5652,13 @@
         <v>233772.0</v>
       </c>
       <c t="s" s="1" r="C153">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c s="1" r="D153">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E153">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c s="1" r="F153">
         <v>21279.0</v>
@@ -5660,13 +5681,13 @@
         <v>233772.0</v>
       </c>
       <c t="s" s="1" r="C154">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c s="1" r="D154">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c t="s" s="1" r="E154">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c s="1" r="F154">
         <v>21279.0</v>
@@ -5686,19 +5707,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B155">
-        <v>233772.0</v>
+        <v>232919.0</v>
       </c>
       <c t="s" s="1" r="C155">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c s="1" r="D155">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E155">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c s="1" r="F155">
-        <v>21279.0</v>
+        <v>88.0</v>
       </c>
       <c s="1" r="G155">
         <v>0.0</v>
@@ -5715,19 +5736,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B156">
-        <v>232919.0</v>
+        <v>233842.0</v>
       </c>
       <c t="s" s="1" r="C156">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c s="1" r="D156">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E156">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c s="1" r="F156">
-        <v>88.0</v>
+        <v>339.0</v>
       </c>
       <c s="1" r="G156">
         <v>0.0</v>
@@ -5744,19 +5765,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B157">
-        <v>233842.0</v>
+        <v>232681.0</v>
       </c>
       <c t="s" s="1" r="C157">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c s="1" r="D157">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E157">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c s="1" r="F157">
-        <v>339.0</v>
+        <v>4481.0</v>
       </c>
       <c s="1" r="G157">
         <v>0.0</v>
@@ -5773,19 +5794,16 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B158">
-        <v>232681.0</v>
+        <v>442189.0</v>
       </c>
       <c t="s" s="1" r="C158">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c s="1" r="D158">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E158">
-        <v>321</v>
-      </c>
-      <c s="1" r="F158">
-        <v>4481.0</v>
+        <v>322</v>
       </c>
       <c s="1" r="G158">
         <v>0.0</v>
@@ -5802,16 +5820,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B159">
-        <v>442189.0</v>
+        <v>233374.0</v>
       </c>
       <c t="s" s="1" r="C159">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c s="1" r="D159">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E159">
-        <v>323</v>
+        <v>324</v>
+      </c>
+      <c s="1" r="F159">
+        <v>4369.0</v>
       </c>
       <c s="1" r="G159">
         <v>0.0</v>
@@ -5820,7 +5841,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I159">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="160">
@@ -5828,19 +5849,16 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B160">
-        <v>233374.0</v>
+        <v>442639.0</v>
       </c>
       <c t="s" s="1" r="C160">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c s="1" r="D160">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E160">
-        <v>325</v>
-      </c>
-      <c s="1" r="F160">
-        <v>4369.0</v>
+        <v>326</v>
       </c>
       <c s="1" r="G160">
         <v>0.0</v>
@@ -5849,7 +5867,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I160">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="161">
@@ -5857,22 +5875,25 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B161">
-        <v>442639.0</v>
+        <v>234076.0</v>
       </c>
       <c t="s" s="1" r="C161">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c s="1" r="D161">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E161">
-        <v>327</v>
+        <v>328</v>
+      </c>
+      <c s="1" r="F161">
+        <v>22739.0</v>
       </c>
       <c s="1" r="G161">
         <v>0.0</v>
       </c>
       <c s="1" r="H161">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="I161">
         <v>0.0</v>
@@ -5886,13 +5907,13 @@
         <v>234076.0</v>
       </c>
       <c t="s" s="1" r="C162">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c s="1" r="D162">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E162">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c s="1" r="F162">
         <v>22739.0</v>
@@ -5901,7 +5922,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="H162">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I162">
         <v>0.0</v>
@@ -5915,13 +5936,13 @@
         <v>234076.0</v>
       </c>
       <c t="s" s="1" r="C163">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c s="1" r="D163">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E163">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c s="1" r="F163">
         <v>22739.0</v>
@@ -5944,13 +5965,13 @@
         <v>234076.0</v>
       </c>
       <c t="s" s="1" r="C164">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c s="1" r="D164">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E164">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c s="1" r="F164">
         <v>22739.0</v>
@@ -5973,13 +5994,13 @@
         <v>234076.0</v>
       </c>
       <c t="s" s="1" r="C165">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c s="1" r="D165">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c t="s" s="1" r="E165">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c s="1" r="F165">
         <v>22739.0</v>
@@ -6002,13 +6023,13 @@
         <v>234076.0</v>
       </c>
       <c t="s" s="1" r="C166">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c s="1" r="D166">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c t="s" s="1" r="E166">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c s="1" r="F166">
         <v>22739.0</v>
@@ -6031,13 +6052,13 @@
         <v>234076.0</v>
       </c>
       <c t="s" s="1" r="C167">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c s="1" r="D167">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c t="s" s="1" r="E167">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c s="1" r="F167">
         <v>22739.0</v>
@@ -6060,13 +6081,13 @@
         <v>234076.0</v>
       </c>
       <c t="s" s="1" r="C168">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c s="1" r="D168">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c t="s" s="1" r="E168">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c s="1" r="F168">
         <v>22739.0</v>
@@ -6086,19 +6107,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B169">
-        <v>234076.0</v>
+        <v>377485.0</v>
       </c>
       <c t="s" s="1" r="C169">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c s="1" r="D169">
-        <v>8.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E169">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c s="1" r="F169">
-        <v>22739.0</v>
+        <v>58.0</v>
       </c>
       <c s="1" r="G169">
         <v>0.0</v>
@@ -6115,28 +6136,28 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B170">
-        <v>377485.0</v>
+        <v>234030.0</v>
       </c>
       <c t="s" s="1" r="C170">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c s="1" r="D170">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E170">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c s="1" r="F170">
-        <v>58.0</v>
+        <v>25001.0</v>
       </c>
       <c s="1" r="G170">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="H170">
-        <v>0.0</v>
+        <v>31.0</v>
       </c>
       <c s="1" r="I170">
-        <v>0.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="171">
@@ -6147,13 +6168,13 @@
         <v>234030.0</v>
       </c>
       <c t="s" s="1" r="C171">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c s="1" r="D171">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E171">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c s="1" r="F171">
         <v>25001.0</v>
@@ -6162,10 +6183,10 @@
         <v>1.0</v>
       </c>
       <c s="1" r="H171">
-        <v>31.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="I171">
-        <v>18.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="172">
@@ -6173,25 +6194,25 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B172">
-        <v>234030.0</v>
+        <v>233903.0</v>
       </c>
       <c t="s" s="1" r="C172">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c s="1" r="D172">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E172">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c s="1" r="F172">
-        <v>25001.0</v>
+        <v>2349.0</v>
       </c>
       <c s="1" r="G172">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="H172">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I172">
         <v>0.0</v>
@@ -6202,19 +6223,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B173">
-        <v>233903.0</v>
+        <v>233912.0</v>
       </c>
       <c t="s" s="1" r="C173">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c s="1" r="D173">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E173">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c s="1" r="F173">
-        <v>2349.0</v>
+        <v>969.0</v>
       </c>
       <c s="1" r="G173">
         <v>0.0</v>
@@ -6231,19 +6252,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B174">
-        <v>233912.0</v>
+        <v>234085.0</v>
       </c>
       <c t="s" s="1" r="C174">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c s="1" r="D174">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E174">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c s="1" r="F174">
-        <v>969.0</v>
+        <v>1311.0</v>
       </c>
       <c s="1" r="G174">
         <v>0.0</v>
@@ -6260,19 +6281,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B175">
-        <v>234085.0</v>
+        <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C175">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c s="1" r="D175">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E175">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c s="1" r="F175">
-        <v>1311.0</v>
+        <v>28203.0</v>
       </c>
       <c s="1" r="G175">
         <v>0.0</v>
@@ -6281,7 +6302,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I175">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="176">
@@ -6292,13 +6313,13 @@
         <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C176">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c s="1" r="D176">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E176">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c s="1" r="F176">
         <v>28203.0</v>
@@ -6310,7 +6331,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I176">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="177">
@@ -6321,13 +6342,13 @@
         <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C177">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c s="1" r="D177">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E177">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c s="1" r="F177">
         <v>28203.0</v>
@@ -6350,13 +6371,13 @@
         <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C178">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c s="1" r="D178">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c t="s" s="1" r="E178">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c s="1" r="F178">
         <v>28203.0</v>
@@ -6379,13 +6400,13 @@
         <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C179">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c s="1" r="D179">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c t="s" s="1" r="E179">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c s="1" r="F179">
         <v>28203.0</v>
@@ -6408,13 +6429,13 @@
         <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C180">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c s="1" r="D180">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c t="s" s="1" r="E180">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c s="1" r="F180">
         <v>28203.0</v>
@@ -6437,13 +6458,13 @@
         <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C181">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c s="1" r="D181">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c t="s" s="1" r="E181">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c s="1" r="F181">
         <v>28203.0</v>
@@ -6466,13 +6487,13 @@
         <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C182">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c s="1" r="D182">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c t="s" s="1" r="E182">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c s="1" r="F182">
         <v>28203.0</v>
@@ -6492,19 +6513,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B183">
-        <v>233921.0</v>
+        <v>234119.0</v>
       </c>
       <c t="s" s="1" r="C183">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c s="1" r="D183">
-        <v>9.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E183">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c s="1" r="F183">
-        <v>28203.0</v>
+        <v>151.0</v>
       </c>
       <c s="1" r="G183">
         <v>0.0</v>
@@ -6521,19 +6542,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B184">
-        <v>234119.0</v>
+        <v>430254.0</v>
       </c>
       <c t="s" s="1" r="C184">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c s="1" r="D184">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E184">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c s="1" r="F184">
-        <v>151.0</v>
+        <v>204.0</v>
       </c>
       <c s="1" r="G184">
         <v>0.0</v>
@@ -6550,22 +6571,22 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B185">
-        <v>430254.0</v>
+        <v>234155.0</v>
       </c>
       <c t="s" s="1" r="C185">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c s="1" r="D185">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E185">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c s="1" r="F185">
-        <v>204.0</v>
+        <v>4638.0</v>
       </c>
       <c s="1" r="G185">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="H185">
         <v>0.0</v>
@@ -6579,22 +6600,22 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B186">
-        <v>234155.0</v>
+        <v>234164.0</v>
       </c>
       <c t="s" s="1" r="C186">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c s="1" r="D186">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E186">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c s="1" r="F186">
-        <v>4638.0</v>
+        <v>1712.0</v>
       </c>
       <c s="1" r="G186">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="H186">
         <v>0.0</v>
@@ -6608,19 +6629,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B187">
-        <v>234164.0</v>
+        <v>234173.0</v>
       </c>
       <c t="s" s="1" r="C187">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c s="1" r="D187">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E187">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c s="1" r="F187">
-        <v>1712.0</v>
+        <v>1412.0</v>
       </c>
       <c s="1" r="G187">
         <v>0.0</v>
@@ -6637,28 +6658,28 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B188">
-        <v>234173.0</v>
+        <v>233949.0</v>
       </c>
       <c t="s" s="1" r="C188">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c s="1" r="D188">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E188">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c s="1" r="F188">
-        <v>1412.0</v>
+        <v>7904.0</v>
       </c>
       <c s="1" r="G188">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c s="1" r="H188">
-        <v>0.0</v>
+        <v>9.0</v>
       </c>
       <c s="1" r="I188">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="189">
@@ -6666,28 +6687,28 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B189">
-        <v>233949.0</v>
+        <v>234191.0</v>
       </c>
       <c t="s" s="1" r="C189">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c s="1" r="D189">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E189">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c s="1" r="F189">
-        <v>7904.0</v>
+        <v>62.0</v>
       </c>
       <c s="1" r="G189">
-        <v>8.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="H189">
-        <v>9.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I189">
-        <v>8.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="190">
@@ -6695,25 +6716,25 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B190">
-        <v>234191.0</v>
+        <v>234207.0</v>
       </c>
       <c t="s" s="1" r="C190">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c s="1" r="D190">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E190">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c s="1" r="F190">
-        <v>62.0</v>
+        <v>2072.0</v>
       </c>
       <c s="1" r="G190">
         <v>0.0</v>
       </c>
       <c s="1" r="H190">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="I190">
         <v>0.0</v>
@@ -6724,25 +6745,25 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B191">
-        <v>234207.0</v>
+        <v>234225.0</v>
       </c>
       <c t="s" s="1" r="C191">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c s="1" r="D191">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E191">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c s="1" r="F191">
-        <v>2072.0</v>
+        <v>229.0</v>
       </c>
       <c s="1" r="G191">
         <v>0.0</v>
       </c>
       <c s="1" r="H191">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I191">
         <v>0.0</v>
@@ -6753,25 +6774,25 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B192">
-        <v>234225.0</v>
+        <v>234359.0</v>
       </c>
       <c t="s" s="1" r="C192">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c s="1" r="D192">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E192">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c s="1" r="F192">
-        <v>229.0</v>
+        <v>238.0</v>
       </c>
       <c s="1" r="G192">
         <v>0.0</v>
       </c>
       <c s="1" r="H192">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="I192">
         <v>0.0</v>
@@ -6782,56 +6803,27 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B193">
-        <v>234359.0</v>
+        <v>234377.0</v>
       </c>
       <c t="s" s="1" r="C193">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c s="1" r="D193">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E193">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c s="1" r="F193">
-        <v>238.0</v>
+        <v>2490.0</v>
       </c>
       <c s="1" r="G193">
         <v>0.0</v>
       </c>
       <c s="1" r="H193">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="I193">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="194">
-      <c s="1" r="A194">
-        <v>2001.0</v>
-      </c>
-      <c s="1" r="B194">
-        <v>234377.0</v>
-      </c>
-      <c t="s" s="1" r="C194">
-        <v>392</v>
-      </c>
-      <c s="1" r="D194">
-        <v>1.0</v>
-      </c>
-      <c t="s" s="1" r="E194">
-        <v>393</v>
-      </c>
-      <c s="1" r="F194">
-        <v>2490.0</v>
-      </c>
-      <c s="1" r="G194">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="H194">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="I194">
         <v>0.0</v>
       </c>
     </row>
